--- a/WebRoot/数据字典.xlsx
+++ b/WebRoot/数据字典.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
   <si>
     <t>directory</t>
   </si>
@@ -405,6 +405,12 @@
     <t>对应的角色id</t>
   </si>
   <si>
+    <t>faceimg</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
@@ -466,6 +472,30 @@
   </si>
   <si>
     <t>单位名称</t>
+  </si>
+  <si>
+    <t>cmgLog</t>
+  </si>
+  <si>
+    <t>客服日志</t>
+  </si>
+  <si>
+    <t>cmid</t>
+  </si>
+  <si>
+    <t>cmts</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
 </sst>
 </file>
@@ -473,10 +503,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -495,24 +525,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,30 +554,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,40 +570,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,16 +617,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,6 +652,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -653,187 +683,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,36 +874,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -895,17 +895,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,16 +952,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,10 +982,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,19 +994,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,116 +1015,116 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,6 +1132,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1452,10 +1488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2191,53 +2227,53 @@
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="1" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B100" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>131</v>
-      </c>
-      <c r="B103" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>6</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="B107" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>136</v>
-      </c>
-      <c r="B108" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2251,63 +2287,125 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B112" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>127</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="A114" s="1" t="s">
         <v>144</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="B119" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B119" t="s">
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>77</v>
+      </c>
+      <c r="B127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>158</v>
+      </c>
+      <c r="B128" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
